--- a/tables/Heterogen_MetaAnalyses_TemperaturePhenology_perTaxon.xlsx
+++ b/tables/Heterogen_MetaAnalyses_TemperaturePhenology_perTaxon.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">Q</t>
   </si>
@@ -59,16 +59,16 @@
     <t xml:space="preserve">ZG</t>
   </si>
   <si>
-    <t xml:space="preserve"> 106.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.376</t>
+    <t xml:space="preserve"> 103.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.374</t>
   </si>
   <si>
     <t xml:space="preserve">CG</t>
   </si>
   <si>
-    <t xml:space="preserve">0.032</t>
+    <t xml:space="preserve">0.034</t>
   </si>
   <si>
     <t xml:space="preserve"> 271.9</t>
@@ -80,16 +80,16 @@
     <t xml:space="preserve">PG</t>
   </si>
   <si>
-    <t xml:space="preserve">  81.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.033</t>
+    <t xml:space="preserve">  81.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.044</t>
   </si>
   <si>
     <t xml:space="preserve">CZG</t>
   </si>
   <si>
-    <t xml:space="preserve">0.407</t>
+    <t xml:space="preserve">0.396</t>
   </si>
   <si>
     <t xml:space="preserve">  48.5</t>
@@ -122,10 +122,13 @@
     <t xml:space="preserve">0.426</t>
   </si>
   <si>
-    <t xml:space="preserve">   3.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.692</t>
+    <t xml:space="preserve">   3.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.431</t>
   </si>
   <si>
     <t xml:space="preserve">   4.7</t>
@@ -146,7 +149,7 @@
     <t xml:space="preserve">   1.4</t>
   </si>
   <si>
-    <t xml:space="preserve">0.851</t>
+    <t xml:space="preserve">0.850</t>
   </si>
 </sst>
 </file>
@@ -745,7 +748,7 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -757,7 +760,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4"/>
@@ -767,10 +770,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -782,7 +785,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="4"/>
@@ -792,7 +795,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
@@ -807,7 +810,7 @@
         <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="4"/>
@@ -817,7 +820,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
@@ -832,7 +835,7 @@
         <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4"/>
